--- a/data/trans_dic/P55$familiar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiar-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1533915110806459</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4552299658752341</v>
+        <v>0.4552299658752342</v>
       </c>
     </row>
     <row r="5">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2001525574889666</v>
+        <v>0.1913975497122712</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="inlineStr"/>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.310485473573176</v>
+        <v>0.3090827794684193</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3026937682795286</v>
+        <v>0.2999514382460416</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6039630004655641</v>
+        <v>0.6051561045312535</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4260945381525751</v>
+        <v>0.4262691238195624</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6152125985737337</v>
+        <v>0.6157189570650322</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6123285509581865</v>
+        <v>0.6333569137182697</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.5447914139108661</v>
+        <v>0.6893211541864001</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7104178706544232</v>
+        <v>0.7335147558168049</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3143677204544291</v>
+        <v>0.2851884342944792</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.447122237420338</v>
+        <v>0.3859943296769696</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4114999506723337</v>
+        <v>0.4373882127704642</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6002310736539666</v>
+        <v>0.6116847231466955</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>0.2503877153022147</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4594806103610403</v>
+        <v>0.4594806103610402</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0.1541788710052566</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4468775603091811</v>
+        <v>0.4468775603091812</v>
       </c>
     </row>
     <row r="8">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07675412279763871</v>
+        <v>0.07456820302260053</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2822643847291264</v>
+        <v>0.2743792013610235</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
@@ -851,17 +851,17 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.2660880608740981</v>
+        <v>0.2372885216571144</v>
       </c>
       <c r="K8" s="5" t="inlineStr"/>
       <c r="L8" s="5" t="n">
-        <v>0.04690908476605393</v>
+        <v>0.04715049838227413</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04700711807937261</v>
+        <v>0.0467222308141047</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3104838578182585</v>
+        <v>0.3230257606641215</v>
       </c>
     </row>
     <row r="9">
@@ -873,31 +873,31 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.4656840011248113</v>
+        <v>0.5428361506816982</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5972710013980724</v>
+        <v>0.5902230010484167</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6524092253183426</v>
+        <v>0.63748782941752</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.5981511089255318</v>
+        <v>0.6001023775930044</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.6352665399823684</v>
+        <v>0.6220937328720129</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="n">
-        <v>0.4168283315854776</v>
+        <v>0.3919947108791709</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4102493187184434</v>
+        <v>0.3690955456217735</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5860572252547187</v>
+        <v>0.5970108635978056</v>
       </c>
     </row>
     <row r="10">
@@ -921,7 +921,7 @@
         <v>0.1432634686525041</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.512151123660445</v>
+        <v>0.5121511236604451</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2648046509796011</v>
@@ -945,7 +945,7 @@
         <v>0.1904649313380978</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5297995639889557</v>
+        <v>0.5297995639889556</v>
       </c>
     </row>
     <row r="11">
@@ -956,40 +956,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09774160393529592</v>
+        <v>0.1021366697176159</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07665704391489404</v>
+        <v>0.07716806016999216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04403592740986606</v>
+        <v>0.04261954448720923</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3320163316469232</v>
+        <v>0.3452737720321384</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1687223920067475</v>
+        <v>0.1706746946383731</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07311398586043744</v>
+        <v>0.07331946729930335</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3878921875425681</v>
+        <v>0.3851159584671713</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1327941407764431</v>
+        <v>0.1253429672109626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1667353137471853</v>
+        <v>0.15983324767268</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07196218719030273</v>
+        <v>0.0714825259577702</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4068125755609237</v>
+        <v>0.4170131196767904</v>
       </c>
     </row>
     <row r="12">
@@ -1000,40 +1000,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5450210158893097</v>
+        <v>0.5547725178574983</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4220611238221491</v>
+        <v>0.500216296822467</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3592941843742308</v>
+        <v>0.3492654732413707</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6721384977921809</v>
+        <v>0.6779499632249442</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.652206431477634</v>
+        <v>0.6716282310117281</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6229344231029337</v>
+        <v>0.6178853910763525</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5042137122981931</v>
+        <v>0.5314123202848633</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7043236649098377</v>
+        <v>0.6909173968328978</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.502561476790661</v>
+        <v>0.4790589136178863</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4458738565231023</v>
+        <v>0.4432129133577982</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3624668923163828</v>
+        <v>0.362003810182239</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6418034677529423</v>
+        <v>0.6505772517794598</v>
       </c>
     </row>
     <row r="13">
@@ -1057,7 +1057,7 @@
         <v>0.2911336566456536</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5836331473303408</v>
+        <v>0.5836331473303409</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3837474134567182</v>
@@ -1069,7 +1069,7 @@
         <v>0.2811015178834624</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.5204976679244995</v>
+        <v>0.5204976679244994</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2105411140380457</v>
@@ -1092,40 +1092,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08051349373583087</v>
+        <v>0.08352748736311168</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.128115068155754</v>
+        <v>0.1309456694784029</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1658316339330999</v>
+        <v>0.1848717413949333</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4743622102333985</v>
+        <v>0.4862031047445913</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2076517981381238</v>
+        <v>0.2093121775804461</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.170473575644059</v>
+        <v>0.1653198373692927</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1288206396411531</v>
+        <v>0.1321479996204836</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4183653813799931</v>
+        <v>0.4209308988787507</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1404733535233197</v>
+        <v>0.1325671841529817</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1773500404081239</v>
+        <v>0.1756388562245468</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1868905785470146</v>
+        <v>0.1996002508205218</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4871257816045447</v>
+        <v>0.4925566843680775</v>
       </c>
     </row>
     <row r="15">
@@ -1136,40 +1136,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2463902198543648</v>
+        <v>0.2481735698196342</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3341932811582818</v>
+        <v>0.3440540416788591</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4307212627888105</v>
+        <v>0.4404261649616263</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6676714970623125</v>
+        <v>0.6728149579788963</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6106600692609444</v>
+        <v>0.5983844426223591</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6424956316532359</v>
+        <v>0.6540821239430036</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5060544276531963</v>
+        <v>0.4987111235108519</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.62750390077792</v>
+        <v>0.6312470029144339</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2965975723353682</v>
+        <v>0.2892510118240645</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3743028540825412</v>
+        <v>0.3664419771658604</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4025220499865018</v>
+        <v>0.415194094281997</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6303300368841507</v>
+        <v>0.6328519718208826</v>
       </c>
     </row>
     <row r="16">
@@ -1205,7 +1205,7 @@
         <v>0.3254188564348698</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6064806063408176</v>
+        <v>0.6064806063408177</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2783321623555215</v>
@@ -1217,7 +1217,7 @@
         <v>0.3480422485701354</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.5516084840834298</v>
+        <v>0.5516084840834299</v>
       </c>
     </row>
     <row r="17">
@@ -1228,40 +1228,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1772562377227093</v>
+        <v>0.1768095035953513</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1751048251735828</v>
+        <v>0.1763899179133906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2610484965983407</v>
+        <v>0.2484548386290511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.254990731184901</v>
+        <v>0.257923492548427</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.110701943051326</v>
+        <v>0.1132489755322602</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2293694689856181</v>
+        <v>0.2269745565230804</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1885934543264658</v>
+        <v>0.1896983625559145</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5399178703606679</v>
+        <v>0.5372744300603824</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1608005926522499</v>
+        <v>0.1697465946535849</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2385897630292203</v>
+        <v>0.2445982624142601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2531191276886051</v>
+        <v>0.257418097528171</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4925073704740788</v>
+        <v>0.4877558700757779</v>
       </c>
     </row>
     <row r="18">
@@ -1272,40 +1272,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6068770773304426</v>
+        <v>0.6085091697377792</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4989206683815668</v>
+        <v>0.5000434179216733</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5089022655531501</v>
+        <v>0.5132859224866506</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5335514980708213</v>
+        <v>0.5303208273239091</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3938813452048779</v>
+        <v>0.404045653202673</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4316326202783554</v>
+        <v>0.4424121339814769</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4644035361525453</v>
+        <v>0.4721668083442367</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.680848838122869</v>
+        <v>0.6770924395605288</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4148117456477242</v>
+        <v>0.4372585128319647</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.415144822554077</v>
+        <v>0.4094403335256972</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4508179323158863</v>
+        <v>0.4498933760762814</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6129709334229296</v>
+        <v>0.6140724922381706</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.292929935518095</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.6011538813919535</v>
+        <v>0.6011538813919536</v>
       </c>
     </row>
     <row r="20">
@@ -1363,31 +1363,31 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.2468563829604063</v>
+        <v>0.1482223109053917</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1978288564423211</v>
+        <v>0.1990604891063147</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2273828250225467</v>
+        <v>0.2286432162071877</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2193881509247636</v>
+        <v>0.2132912351551678</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.535137841114726</v>
+        <v>0.5397119198365149</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2115075521236932</v>
+        <v>0.1983698129573935</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2273828250225467</v>
+        <v>0.2286432162071877</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2193881509247636</v>
+        <v>0.2132912351551678</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5366079842651774</v>
+        <v>0.5420618054145083</v>
       </c>
     </row>
     <row r="21">
@@ -1404,28 +1404,28 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.350778543027163</v>
+        <v>0.3562138009571053</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3904226343244075</v>
+        <v>0.3929988155339701</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3808358517376101</v>
+        <v>0.3777786748762081</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6636844768475326</v>
+        <v>0.6614053544997354</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3576591178358125</v>
+        <v>0.3584088134209352</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3904226343244075</v>
+        <v>0.3929988155339701</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3808358517376101</v>
+        <v>0.3777786748762081</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6603778324316634</v>
+        <v>0.6576413390528046</v>
       </c>
     </row>
     <row r="22">
@@ -1449,7 +1449,7 @@
         <v>0.2913127646686062</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5078803940647678</v>
+        <v>0.5078803940647677</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2557371658920687</v>
@@ -1484,40 +1484,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1260247094687757</v>
+        <v>0.1368441615729329</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1623342955361214</v>
+        <v>0.1621881294445405</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2158130664458962</v>
+        <v>0.2190425914393711</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4455120816173629</v>
+        <v>0.4393738068752004</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2021249972789979</v>
+        <v>0.1989970118154025</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.265437529502569</v>
+        <v>0.2672223871595428</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2229484225306158</v>
+        <v>0.2236936168724303</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5358244868783777</v>
+        <v>0.5349048030331686</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1898722202856415</v>
+        <v>0.1927290954218062</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2464565397809629</v>
+        <v>0.2456784427453946</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2391209215221035</v>
+        <v>0.2391424422165272</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5169247379316783</v>
+        <v>0.5196522195216312</v>
       </c>
     </row>
     <row r="24">
@@ -1528,40 +1528,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2611803867869297</v>
+        <v>0.2790742133208688</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.310686426394403</v>
+        <v>0.3112911963174954</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3643033143631941</v>
+        <v>0.368713043047995</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.567655697494082</v>
+        <v>0.5618545964158865</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3229410421528258</v>
+        <v>0.3189315091687445</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3721541064782024</v>
+        <v>0.3859594689352862</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3452719111843218</v>
+        <v>0.3511376234931358</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6155863573899949</v>
+        <v>0.6150766893839075</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2800982219981317</v>
+        <v>0.2849507622718641</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3367632123162041</v>
+        <v>0.3339128110408467</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3336000224903563</v>
+        <v>0.3329891153672613</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5871498280945344</v>
+        <v>0.5877777592772694</v>
       </c>
     </row>
     <row r="25">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2502</v>
+        <v>2393</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4654</v>
+        <v>4633</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8322</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="7">
@@ -1874,36 +1874,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6127</v>
+        <v>6139</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4324</v>
+        <v>4327</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7655</v>
+        <v>7918</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>4383</v>
+        <v>5546</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10650</v>
+        <v>10996</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7391</v>
+        <v>6705</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>5214</v>
+        <v>4501</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6203</v>
+        <v>6593</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>16502</v>
+        <v>16816</v>
       </c>
     </row>
     <row r="8">
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5295</v>
+        <v>5147</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>4133</v>
+        <v>3685</v>
       </c>
       <c r="K10" s="6" t="inlineStr"/>
       <c r="L10" s="6" t="n">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10646</v>
+        <v>11077</v>
       </c>
     </row>
     <row r="11">
@@ -2043,31 +2043,31 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4429</v>
+        <v>5162</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6423</v>
+        <v>6347</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12239</v>
+        <v>11959</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>5269</v>
+        <v>5286</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>9866</v>
+        <v>9662</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="n">
-        <v>7635</v>
+        <v>7181</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>7165</v>
+        <v>6446</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>20096</v>
+        <v>20472</v>
       </c>
     </row>
     <row r="12">
@@ -2170,40 +2170,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1761</v>
+        <v>1840</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1873</v>
+        <v>1886</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>726</v>
+        <v>702</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7567</v>
+        <v>7869</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3206</v>
+        <v>3243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9261</v>
+        <v>9194</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3498</v>
+        <v>3301</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7243</v>
+        <v>6943</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2359</v>
+        <v>2343</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>18984</v>
+        <v>19460</v>
       </c>
     </row>
     <row r="15">
@@ -2214,40 +2214,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9820</v>
+        <v>9996</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10313</v>
+        <v>12223</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5922</v>
+        <v>5757</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15318</v>
+        <v>15450</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5426</v>
+        <v>5588</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11836</v>
+        <v>11740</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8219</v>
+        <v>8662</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16815</v>
+        <v>16495</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13236</v>
+        <v>12617</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>19368</v>
+        <v>19252</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11883</v>
+        <v>11868</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>29949</v>
+        <v>30359</v>
       </c>
     </row>
     <row r="16">
@@ -2350,40 +2350,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5686</v>
+        <v>5899</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8685</v>
+        <v>8877</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6611</v>
+        <v>7370</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>36592</v>
+        <v>37505</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4863</v>
+        <v>4902</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3552</v>
+        <v>3445</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4229</v>
+        <v>4338</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>17504</v>
+        <v>17611</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13211</v>
+        <v>12468</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15718</v>
+        <v>15566</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>13585</v>
+        <v>14509</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>57957</v>
+        <v>58603</v>
       </c>
     </row>
     <row r="19">
@@ -2394,40 +2394,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17402</v>
+        <v>17528</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22655</v>
+        <v>23323</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17170</v>
+        <v>17557</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>51504</v>
+        <v>51900</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14302</v>
+        <v>14015</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13388</v>
+        <v>13629</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16612</v>
+        <v>16371</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26254</v>
+        <v>26411</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>27894</v>
+        <v>27203</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>33173</v>
+        <v>32476</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>29259</v>
+        <v>30180</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>74995</v>
+        <v>75295</v>
       </c>
     </row>
     <row r="20">
@@ -2530,40 +2530,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2850</v>
+        <v>2843</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6309</v>
+        <v>6356</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12355</v>
+        <v>11759</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8384</v>
+        <v>8481</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4031</v>
+        <v>4124</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>19166</v>
+        <v>18966</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9999</v>
+        <v>10058</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>54390</v>
+        <v>54124</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8441</v>
+        <v>8911</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>28533</v>
+        <v>29252</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>25400</v>
+        <v>25832</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>65808</v>
+        <v>65173</v>
       </c>
     </row>
     <row r="23">
@@ -2574,40 +2574,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9758</v>
+        <v>9784</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17977</v>
+        <v>18018</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24086</v>
+        <v>24293</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>17544</v>
+        <v>17437</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>14343</v>
+        <v>14713</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>36067</v>
+        <v>36968</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>24623</v>
+        <v>25034</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>68587</v>
+        <v>68209</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>21775</v>
+        <v>22953</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>49647</v>
+        <v>48965</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>45239</v>
+        <v>45146</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>81905</v>
+        <v>82052</v>
       </c>
     </row>
     <row r="24">
@@ -2709,31 +2709,31 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>544</v>
+        <v>327</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>28497</v>
+        <v>28674</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>32537</v>
+        <v>32718</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>32308</v>
+        <v>31410</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>81389</v>
+        <v>82085</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>30661</v>
+        <v>28756</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>32537</v>
+        <v>32718</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>32308</v>
+        <v>31410</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>82795</v>
+        <v>83637</v>
       </c>
     </row>
     <row r="27">
@@ -2750,28 +2750,28 @@
         <v>2204</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>50529</v>
+        <v>51312</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>55868</v>
+        <v>56236</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>56083</v>
+        <v>55633</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>100940</v>
+        <v>100593</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>51847</v>
+        <v>51956</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>55868</v>
+        <v>56236</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>56083</v>
+        <v>55633</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>101892</v>
+        <v>101470</v>
       </c>
     </row>
     <row r="28">
@@ -2874,40 +2874,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>15952</v>
+        <v>17321</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>23728</v>
+        <v>23707</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>26212</v>
+        <v>26604</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>74077</v>
+        <v>73056</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>46675</v>
+        <v>45953</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>73940</v>
+        <v>74437</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>58895</v>
+        <v>59092</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>187037</v>
+        <v>186715</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>67880</v>
+        <v>68901</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>104677</v>
+        <v>104347</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>92211</v>
+        <v>92219</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>266390</v>
+        <v>267796</v>
       </c>
     </row>
     <row r="31">
@@ -2918,40 +2918,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>33060</v>
+        <v>35325</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>45412</v>
+        <v>45501</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>44248</v>
+        <v>44783</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>94386</v>
+        <v>93422</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>74574</v>
+        <v>73648</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>103667</v>
+        <v>107513</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>91208</v>
+        <v>92758</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>214878</v>
+        <v>214701</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>100135</v>
+        <v>101870</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>143033</v>
+        <v>141822</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>128644</v>
+        <v>128408</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>302580</v>
+        <v>302904</v>
       </c>
     </row>
     <row r="32">
